--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62655C1A-720D-4947-B591-814B78B64358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911C234-8915-A64E-92D2-FD6357727A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -96,12 +96,6 @@
     <t>mg</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>TEST PURPOSES ONLY - Karvea (irbesartan) 75 mg tablets</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Packaging_type</t>
   </si>
   <si>
-    <t>packaging.quantity</t>
-  </si>
-  <si>
     <t>packaging_material</t>
   </si>
   <si>
@@ -259,12 +250,6 @@
   </si>
   <si>
     <t>identifier_value</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>2018-06-23T08:38:00+02:00</t>
   </si>
   <si>
     <t>https://www.gravitatehealth.eu/sid/doc</t>
@@ -812,24 +797,6 @@
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>acmedrug</t>
-  </si>
-  <si>
-    <t>acmedrug-ing1</t>
-  </si>
-  <si>
-    <t>acmedrug-ing2</t>
-  </si>
-  <si>
-    <t>acmedrug-ing3</t>
-  </si>
-  <si>
-    <t>acmedrugman</t>
-  </si>
-  <si>
-    <t>acmedrug-man</t>
-  </si>
-  <si>
     <t>ACME industry</t>
   </si>
   <si>
@@ -839,18 +806,6 @@
     <t xml:space="preserve">street x and y </t>
   </si>
   <si>
-    <t>acme drug blister tabs</t>
-  </si>
-  <si>
-    <t>acme drug</t>
-  </si>
-  <si>
-    <t>acmesub</t>
-  </si>
-  <si>
-    <t>acmedrug-</t>
-  </si>
-  <si>
     <t>languageID</t>
   </si>
   <si>
@@ -876,6 +831,36 @@
   </si>
   <si>
     <t>address_postalCode</t>
+  </si>
+  <si>
+    <t>inside_packaging_identifier</t>
+  </si>
+  <si>
+    <t>inside_packaging_type</t>
+  </si>
+  <si>
+    <t>inside_packaging_typeID</t>
+  </si>
+  <si>
+    <t>inside_packaging_quantity</t>
+  </si>
+  <si>
+    <t>inside_packaging_material</t>
+  </si>
+  <si>
+    <t>inside_packaging_materialID</t>
+  </si>
+  <si>
+    <t>cinitrapide</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>packaging_quantity</t>
   </si>
 </sst>
 </file>
@@ -997,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1285,7 +1270,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,7 +1281,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,25 +1312,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1354,7 +1339,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1426,31 +1411,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>114</v>
-      </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -1459,37 +1444,37 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1502,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,38 +1499,32 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1588,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1616,112 +1595,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>125</v>
-      </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
       <c r="H2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1707,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,31 +1735,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1795,13 +1768,13 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5">
         <v>100000072082</v>
@@ -1815,13 +1788,13 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <v>100000072082</v>
@@ -1835,10 +1808,10 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1847,10 +1820,10 @@
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1905,7 +1878,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1946,10 +1919,10 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1961,7 +1934,7 @@
         <v>100000073864</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -1977,7 +1950,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2002,67 +1975,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="U1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -2071,55 +2044,55 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S2" s="10">
         <v>100000000000</v>
@@ -2135,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,28 +2134,28 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -2191,37 +2164,37 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="8">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2231,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,7 +2229,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2270,73 +2243,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2">
         <v>100000073496</v>
@@ -2345,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>200000003222</v>
@@ -2362,7 +2353,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2381,22 +2372,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -2405,31 +2396,31 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911C234-8915-A64E-92D2-FD6357727A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A40437-5631-BE4A-881F-87C4F8AB89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
-    <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
-    <sheet name="ClinicalUseDefinition" sheetId="2" r:id="rId2"/>
-    <sheet name="Composition" sheetId="3" r:id="rId3"/>
+    <sheet name="Organization" sheetId="7" r:id="rId1"/>
+    <sheet name="RegulatedAuthorization" sheetId="9" r:id="rId2"/>
+    <sheet name="Substance" sheetId="10" r:id="rId3"/>
     <sheet name="Ingredient" sheetId="4" r:id="rId4"/>
     <sheet name="ManufacturedItemDefinition" sheetId="5" r:id="rId5"/>
     <sheet name="MedicinalProductDefinition" sheetId="6" r:id="rId6"/>
-    <sheet name="Organization" sheetId="7" r:id="rId7"/>
+    <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId7"/>
     <sheet name="PackagedProductDefinition" sheetId="8" r:id="rId8"/>
-    <sheet name="RegulatedAuthorization" sheetId="9" r:id="rId9"/>
-    <sheet name="Substance" sheetId="10" r:id="rId10"/>
+    <sheet name="ClinicalUseDefinition" sheetId="2" r:id="rId9"/>
+    <sheet name="Composition" sheetId="3" r:id="rId10"/>
     <sheet name="Bundle" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -117,12 +117,6 @@
     <t>ETJ7Z6XBU4</t>
   </si>
   <si>
-    <t>15FIX9V2JP</t>
-  </si>
-  <si>
-    <t>J0E2756Z7N</t>
-  </si>
-  <si>
     <t>EU/1/96/007/035</t>
   </si>
   <si>
@@ -150,21 +144,9 @@
     <t>language</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>75 mg</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>Human use</t>
-  </si>
-  <si>
     <t>ORG-100000789</t>
   </si>
   <si>
@@ -180,21 +162,12 @@
     <t>physical</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>Packaging_type</t>
   </si>
   <si>
     <t>packaging_material</t>
   </si>
   <si>
-    <t>EU/1/97/049/001</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -219,21 +192,9 @@
     <t>Validated (UNII)</t>
   </si>
   <si>
-    <t>White to off-white, biconvex, and oval-shaped with a heart debossed on one side and the number 2771 engraved on the other side.</t>
-  </si>
-  <si>
-    <t>428.53</t>
-  </si>
-  <si>
     <t>exact</t>
   </si>
   <si>
-    <t>C25H28N6O</t>
-  </si>
-  <si>
-    <t>(+)-6-methyleneandrosta-1,4-diene-3,17-dione</t>
-  </si>
-  <si>
     <t>Chemical Name</t>
   </si>
   <si>
@@ -243,9 +204,6 @@
     <t>Marketing Authorisation</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>identifier_system</t>
   </si>
   <si>
@@ -270,9 +228,6 @@
     <t>conceptID</t>
   </si>
   <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
-  </si>
-  <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
   </si>
   <si>
@@ -297,24 +252,9 @@
     <t>active ingredient - basis of strength</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>domainID</t>
-  </si>
-  <si>
     <t>typeID</t>
   </si>
   <si>
-    <t>MedicinalProduct</t>
-  </si>
-  <si>
-    <t>Medicinal Product</t>
-  </si>
-  <si>
-    <t>4471bb15-7f52-4fcd-b615-8674ce6eb91e</t>
-  </si>
-  <si>
     <t>statusSuply</t>
   </si>
   <si>
@@ -322,9 +262,6 @@
   </si>
   <si>
     <t>statusSuplyID</t>
-  </si>
-  <si>
-    <t>address_text</t>
   </si>
   <si>
     <t>address_use</t>
@@ -797,24 +734,9 @@
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>ACME industry</t>
-  </si>
-  <si>
-    <t>street tal e tal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street x and y </t>
-  </si>
-  <si>
     <t>languageID</t>
   </si>
   <si>
-    <t>Karvea</t>
-  </si>
-  <si>
-    <t>irbesartan</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -857,17 +779,92 @@
     <t>xx</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>packaging_quantity</t>
+  </si>
+  <si>
+    <t>BLASTON 1 mg tablets</t>
+  </si>
+  <si>
+    <t>BLASTON 1 mg tablets, 50 tablets</t>
+  </si>
+  <si>
+    <t>1 mg</t>
+  </si>
+  <si>
+    <t>Lacer, S.A. - Boters, 5</t>
+  </si>
+  <si>
+    <t>Cerdanyola del Vallès</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>59.032</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>R8I97I2L24</t>
+  </si>
+  <si>
+    <t>CINITAPRIDE</t>
+  </si>
+  <si>
+    <t>402.49</t>
+  </si>
+  <si>
+    <t>C21H30N4O4</t>
+  </si>
+  <si>
+    <t>4-amino-N-{1-[(cyclohex-3-en-1-yl)methyl]piperidin-4-yl}-2-ethoxy-5-nitrobenzamide</t>
+  </si>
+  <si>
+    <t>POVIDONE, UNSPECIFIED</t>
+  </si>
+  <si>
+    <t>FZ989GH94E</t>
+  </si>
+  <si>
+    <t>Magnesium stearate</t>
+  </si>
+  <si>
+    <t>70097M6I30</t>
+  </si>
+  <si>
+    <t>SILICA, COLLOIDAL ANHYDROUS</t>
+  </si>
+  <si>
+    <t>STARCH, POTATO</t>
+  </si>
+  <si>
+    <t>8I089SAH3T</t>
+  </si>
+  <si>
+    <t>STARCH, CORN</t>
+  </si>
+  <si>
+    <t>O8232NY3SJ</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Blaston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinitapride </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -929,6 +926,33 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF192027"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC7254E"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -950,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -964,6 +988,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,25 +1307,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="1" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,70 +1330,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>200000002152</v>
+        <v>35</v>
+      </c>
+      <c r="F2" s="8">
+        <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
-        <v>200000002152</v>
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>100000073619</v>
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100000109093</v>
+        <v>129</v>
+      </c>
+      <c r="L2">
+        <v>8290</v>
       </c>
     </row>
   </sheetData>
@@ -1378,6 +1402,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="409.6">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11">
+        <v>39352</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100000072062</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A92C9B-205A-9C46-BBE8-35C473DF2B66}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1385,7 +1645,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1397,7 +1657,7 @@
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,70 +1671,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+      <c r="B2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
+      <c r="G2" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1482,235 +1739,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1B0E2-F796-B640-AFF9-FCC100C95224}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="G4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4AB6-8E39-3645-80A9-C32AEEA52BB0}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1724,7 +1765,7 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,13 +1779,13 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1765,13 +1806,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+      <c r="B2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1785,13 +1826,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="B3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1805,13 +1846,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1820,56 +1861,111 @@
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>100000072082</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1878,16 +1974,16 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,25 +2000,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1934,7 +2030,7 @@
         <v>100000073864</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>200000002152</v>
@@ -1947,13 +2043,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
@@ -1966,135 +2062,105 @@
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="R1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="10">
+      <c r="M2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="10">
         <v>100000000000</v>
       </c>
     </row>
@@ -2105,19 +2171,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7762C-AB2F-B34F-B02E-3A163776DCB2}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="12" width="11" customWidth="1"/>
+    <col min="1" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,73 +2200,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8">
-        <v>220000000034</v>
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>200000002152</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200000002152</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100000073619</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100000109093</v>
       </c>
     </row>
   </sheetData>
@@ -2206,11 +2275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -2229,7 +2298,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2243,100 +2312,100 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="R1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="U1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="V1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
         <v>100000073496</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N2">
         <v>200000003222</v>
@@ -2349,79 +2418,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1B0E2-F796-B640-AFF9-FCC100C95224}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100000072062</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43077A2F-F791-2D48-B60F-4325174CF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A5039A-14BE-7742-AAC9-72C45D6FF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -469,6 +469,175 @@
   </si>
   <si>
     <t xml:space="preserve">Cinitapride </t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento, porque contiene información importante para usted.&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/li&gt;
+&lt;li&gt;Si tiene alguna duda, consulte a su médico o farmacéutico.&lt;/li&gt;
+&lt;li&gt;Este medicamento se le ha recetado solamente a usted, y no debe dárselo a otras personas aunque tengan
+los mismos síntomas que usted, ya que puede perjudicarles.&lt;/li&gt;
+&lt;li&gt;Si experimenta efectos adversos, consulte a su médico o farmacéutico, incluso si se trata de efectos
+adversos que no aparecen en este prospecto. Ver sección 4.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Contenido del prospecto:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;Qué es Blaston 1 mg Comprimidos y para qué se utiliza&lt;/li&gt;
+&lt;li&gt;Qué necesita saber antes de empezar a tomar Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Cómo tomar Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Posibles efectos adversos&lt;/li&gt;
+&lt;li&gt;Conservación de Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Contenido del envase e información adicional&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Blaston pertenece a un grupo de medicamentos denominados procinéticos, que actúan estimulando la
+motilidad gastrointestinal.&lt;/p&gt;
+&lt;p&gt;Blaston está indicado para el tratamiento del reflujo gastroesofágico para potenciar el efecto de los
+inhibidores de la bomba de protones (medicamentos que reducen la producción de acidez gástrica) y de
+los trastornos funcionales de la motilidad gastrointestinal leve-moderada.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;No tome Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si es alérgico a la cinitaprida o a cualquiera de los demás componentes de este medicamento
+(incluidos en la sección 6).&lt;/li&gt;
+&lt;li&gt;si padece hemorragia, obstrucción o perforación gastrointestinal.&lt;/li&gt;
+&lt;li&gt;si tiene antecedentes de disquinesia tardía inducida por neurolépticos (movimientos rápidos y
+repetidos de cabeza, cuello, tronco o extremidades que pueden aparecer meses después de que se
+haya abandonado el tratamiento).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Advertencias y precauciones&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Consulte a su médico o farmacéutico antes de empezar a tomar Blaston 1 mg comprimidos.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si usted es un paciente de edad avanzada y toma el medicamento durante un período de tiempo
+prolongado, ya que le podría provocar disquinesia tardía (movimientos rápidos y repetidos de
+cabeza, cuello, tronco o extremidades que pueden aparecer meses después de que se haya
+abandonado el tratamiento).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Blaston 1 mg Comprimidos con otros medicamentos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Informe a su médico o farmacéutico si está tomando, ha tomado recientemente o podría tener que tomar
+cualquier otro medicamento.&lt;/p&gt;
+&lt;p&gt;Blaston puede aumentar los efectos neurológicos de algunos medicamentos, en especial de aquellos que
+se utilizan para tratar enfermedades del sistema nervioso, para el insomnio y para el alivio del dolor
+moderado o intenso.&lt;/p&gt;
+&lt;p&gt;Blaston puede disminuir el efecto de la digoxina, un medicamento que se utiliza para el tratamiento de
+la insuficiencia cardiaca.&lt;/p&gt;
+&lt;p&gt;Por otro lado, algunos medicamentos pueden disminuir la acción de Blaston. Es el caso de algunos
+medicamentos que se utilizan para tratar la enfermedad de Parkinson, los dolores abdominales o
+enfermedades respiratorias como la bronquitis crónica.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Blaston 1 mg Comprimidos con alimentos, bebidas y alcohol&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Blaston no debe tomarse con alcohol dado que éste potencia sus efectos sedantes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo y lactancia&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada o en periodo de lactancia, cree que podría estar embarazada o tiene intención de
+quedarse embarazada, consulte con su médico o farmacéutico antes de utilizar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Embarazo&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;No hay datos relativos al uso de cinitaprida en mujeres embarazadas. Los estudios en animales no
+sugieren efectos perjudiciales directos ni indirectos en términos de toxicidad para la reproducción.
+Como medida de precaución, es preferible evitar el uso de cinitaprida durante el embarazo.&lt;/p&gt;
+&lt;p&gt;El médico decidirá la conveniencia de que tome o no Blaston.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Lactancia&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Se desconoce si el medicamento pasa a la leche materna. Como medida de precaución, es preferible
+evitar el uso de este medicamento durante la lactancia.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No conduzca ni maneje maquinaria peligrosa durante el tratamiento con Blaston.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Blaston 1 mg Comprimidos contiene lactosa&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene lactosa. Si su médico le ha indicado que padece una intolerancia a ciertos
+azúcares, consulte con él antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene menos de 23 mg de sodio (1 mmol) por comprimido; esto es, esencialmente
+“exento de sodio”.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Siga exactamente las instrucciones de administración de este medicamento indicadas por su médico. En
+caso de duda, consulte de nuevo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;Recuerde tomar su medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en niños y adolescentes&lt;/strong&gt;
+No se aconseja la administración de Blaston en niños y adolescentes, por no disponer de experiencia de
+uso en estos grupos de edades.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en adultos (mayores de 20 años)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La dosis recomendada para los adultos (mayores de 20 años) es de 1 comprimido, 3 veces al día, 15
+minutos antes de cada comida.&lt;/p&gt;
+&lt;p&gt;No es más eficaz, ni conveniente aumentar las dosis recomendadas.&lt;/p&gt;
+&lt;p&gt;Su médico le indicará la duración de su tratamiento con Blaston. No suspenda el tratamiento antes.&lt;/p&gt;
+&lt;p&gt;Los comprimidos deben tomarse por vía oral con un vaso de agua.&lt;/p&gt;
+&lt;p&gt;Si estima que la acción de Blaston es demasiado fuerte o débil, comuníqueselo a su médico o
+farmacéutico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si toma más Blaston 1 mg Comprimidos del que debe&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si ha tomado más Blaston del que debiera, consulte inmediatamente a su médico o farmacéutico o llame
+al Servicio de Información Toxicológica, teléfono: 915 620 420, indicando el medicamento y la
+cantidad tomada.&lt;/p&gt;
+&lt;p&gt;Los síntomas de sobredosis pueden ser: somnolencia, desorientación y reacciones extrapiramidales
+(movimientos musculares involuntarios de cara, cuello y lengua) que, normalmente, desaparecen al
+suspender el tratamiento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si olvidó tomar Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tome una dosis doble para compensar las dosis olvidadas. Tome la dosis olvidada cuando se acuerde
+y luego siga con el horario habitual. Sin embargo, si faltan pocas horas para la siguiente dosis no tome
+la dosis olvidada y espere a tomar la siguiente dosis a la hora que le corresponda.&lt;/p&gt;
+&lt;p&gt;Si tiene cualquier otra duda sobre el uso de este medicamento, pregunte a su médico o farmacéutico.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Al igual que todos los medicamentos, Blaston puede producir efectos adversos, aunque no todas las
+personas los sufran.
+Los efectos adversos pueden ser:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;Poco frecuentes (pueden afectar hasta 1 de cada 100 personas)&lt;/strong&gt;&lt;ul&gt;
+&lt;li&gt;Algunos pacientes pueden notar una ligera sedación o somnolencia.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Frecuencia desconocida (no puede estimarse a partir de los datos disponibles)&lt;/strong&gt;&lt;ul&gt;
+&lt;li&gt;Pueden originarse reacciones extrapiramidales (movimientos musculares involuntarios de
+cara, cuello y lengua).&lt;/li&gt;
+&lt;li&gt;Pueden aparecer reacciones en la piel como erupción, picor, angioedema (hinchazón de
+labios y lengua que puede afectar a la laringe), ginecomastia (excesivo desarrollo de las
+glándulas mamarias) y galactorrea (secreción de leche).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Comunicación de efectos adversos&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico, farmacéutico o enfermero incluso
+si se trata de posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos
+directamente a través del Sistema Español de Farmacovigilancia de Medicamentos de Uso Humano:
+&lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Mediante la comunicación de efectos adversos usted puede contribuir a proporcionar más información
+sobre la seguridad de este medicamento.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/p&gt;
+&lt;p&gt;No requiere condiciones especiales de conservación.&lt;/p&gt;
+&lt;p&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase después de Cad. La fecha de caducidad es el último día del mes que se indica.&lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los
+medicamentos que no necesita en el Punto SIGRE de la farmacia. En caso de duda pregunte a su
+farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma
+ayudará a proteger el medio ambiente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Composición de Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;El principio activo es cinitaprida (como tartrato ácido). Cada comprimido contiene 1 mg de cinitaprida
+Los demás componentes son carboximetilalmidón de sodio (de patata), celulosa en polvo, lactosa
+anhidra, sílice coloidal y estearato de magnesio (E-470b).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Aspecto del producto y contenido del envase&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Blaston 1 mg Comprimidos se presenta en forma de comprimidos redondos, biselados, de color amarillo
+claro y ranurados en su cara superior. Cada caja contiene 50 comprimidos&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular de la autorización de comercialización y responsable de la fabricación&lt;/strong&gt;
+&lt;strong&gt;Titular de la autorización de comercialización&lt;/strong&gt;
+Lacer, S.A. - Boters, 5
+08290 Cerdanyola del Vallès
+Barcelona – España&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Responsable de la fabricación&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Industrias Farmacéuticas Almirall, S.A.
+Ctra. de Martorell, 41-61
+08740 Sant Andreu de la Barca – Barcelona (España)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fecha de la última revisión de este prospecto: Marzo 2019&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La información detallada y actualizada de este medicamento está disponible en la página Web de
+la Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https:://cima.aemps.es/ids</t>
   </si>
 </sst>
 </file>
@@ -585,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,6 +774,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>112</v>
@@ -1092,18 +1264,36 @@
         <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1642,30 +1832,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,93 +1863,99 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>30</v>
       </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>100000000000</v>
       </c>
     </row>
@@ -2021,7 +2217,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A5039A-14BE-7742-AAC9-72C45D6FF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0196A4-C915-E443-8D64-6A80F75AC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -637,7 +637,10 @@
 la Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>https:://cima.aemps.es/ids</t>
+    <t>59.032|0xbb82cd10ab2add752b2b9224931077b2</t>
+  </si>
+  <si>
+    <t>https:://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1838,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1920,10 +1923,10 @@
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>139</v>

--- a/ePICreator/cinitrapide.xlsx
+++ b/ePICreator/cinitrapide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43077A2F-F791-2D48-B60F-4325174CF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0196A4-C915-E443-8D64-6A80F75AC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -469,6 +469,178 @@
   </si>
   <si>
     <t xml:space="preserve">Cinitapride </t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Lea todo el prospecto detenidamente antes de empezar a tomar este medicamento, porque contiene información importante para usted.&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Conserve este prospecto, ya que puede tener que volver a leerlo.&lt;/li&gt;
+&lt;li&gt;Si tiene alguna duda, consulte a su médico o farmacéutico.&lt;/li&gt;
+&lt;li&gt;Este medicamento se le ha recetado solamente a usted, y no debe dárselo a otras personas aunque tengan
+los mismos síntomas que usted, ya que puede perjudicarles.&lt;/li&gt;
+&lt;li&gt;Si experimenta efectos adversos, consulte a su médico o farmacéutico, incluso si se trata de efectos
+adversos que no aparecen en este prospecto. Ver sección 4.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Contenido del prospecto:&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;Qué es Blaston 1 mg Comprimidos y para qué se utiliza&lt;/li&gt;
+&lt;li&gt;Qué necesita saber antes de empezar a tomar Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Cómo tomar Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Posibles efectos adversos&lt;/li&gt;
+&lt;li&gt;Conservación de Blaston 1 mg Comprimidos&lt;/li&gt;
+&lt;li&gt;Contenido del envase e información adicional&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Blaston pertenece a un grupo de medicamentos denominados procinéticos, que actúan estimulando la
+motilidad gastrointestinal.&lt;/p&gt;
+&lt;p&gt;Blaston está indicado para el tratamiento del reflujo gastroesofágico para potenciar el efecto de los
+inhibidores de la bomba de protones (medicamentos que reducen la producción de acidez gástrica) y de
+los trastornos funcionales de la motilidad gastrointestinal leve-moderada.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;No tome Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si es alérgico a la cinitaprida o a cualquiera de los demás componentes de este medicamento
+(incluidos en la sección 6).&lt;/li&gt;
+&lt;li&gt;si padece hemorragia, obstrucción o perforación gastrointestinal.&lt;/li&gt;
+&lt;li&gt;si tiene antecedentes de disquinesia tardía inducida por neurolépticos (movimientos rápidos y
+repetidos de cabeza, cuello, tronco o extremidades que pueden aparecer meses después de que se
+haya abandonado el tratamiento).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Advertencias y precauciones&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Consulte a su médico o farmacéutico antes de empezar a tomar Blaston 1 mg comprimidos.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;si usted es un paciente de edad avanzada y toma el medicamento durante un período de tiempo
+prolongado, ya que le podría provocar disquinesia tardía (movimientos rápidos y repetidos de
+cabeza, cuello, tronco o extremidades que pueden aparecer meses después de que se haya
+abandonado el tratamiento).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Blaston 1 mg Comprimidos con otros medicamentos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Informe a su médico o farmacéutico si está tomando, ha tomado recientemente o podría tener que tomar
+cualquier otro medicamento.&lt;/p&gt;
+&lt;p&gt;Blaston puede aumentar los efectos neurológicos de algunos medicamentos, en especial de aquellos que
+se utilizan para tratar enfermedades del sistema nervioso, para el insomnio y para el alivio del dolor
+moderado o intenso.&lt;/p&gt;
+&lt;p&gt;Blaston puede disminuir el efecto de la digoxina, un medicamento que se utiliza para el tratamiento de
+la insuficiencia cardiaca.&lt;/p&gt;
+&lt;p&gt;Por otro lado, algunos medicamentos pueden disminuir la acción de Blaston. Es el caso de algunos
+medicamentos que se utilizan para tratar la enfermedad de Parkinson, los dolores abdominales o
+enfermedades respiratorias como la bronquitis crónica.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Toma de Blaston 1 mg Comprimidos con alimentos, bebidas y alcohol&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Blaston no debe tomarse con alcohol dado que éste potencia sus efectos sedantes.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Embarazo y lactancia&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si está embarazada o en periodo de lactancia, cree que podría estar embarazada o tiene intención de
+quedarse embarazada, consulte con su médico o farmacéutico antes de utilizar este medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Embarazo&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;No hay datos relativos al uso de cinitaprida en mujeres embarazadas. Los estudios en animales no
+sugieren efectos perjudiciales directos ni indirectos en términos de toxicidad para la reproducción.
+Como medida de precaución, es preferible evitar el uso de cinitaprida durante el embarazo.&lt;/p&gt;
+&lt;p&gt;El médico decidirá la conveniencia de que tome o no Blaston.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Lactancia&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Se desconoce si el medicamento pasa a la leche materna. Como medida de precaución, es preferible
+evitar el uso de este medicamento durante la lactancia.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Conducción y uso de máquinas&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No conduzca ni maneje maquinaria peligrosa durante el tratamiento con Blaston.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Blaston 1 mg Comprimidos contiene lactosa&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene lactosa. Si su médico le ha indicado que padece una intolerancia a ciertos
+azúcares, consulte con él antes de tomar este medicamento.&lt;/p&gt;
+&lt;p&gt;Este medicamento contiene menos de 23 mg de sodio (1 mmol) por comprimido; esto es, esencialmente
+“exento de sodio”.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Siga exactamente las instrucciones de administración de este medicamento indicadas por su médico. En
+caso de duda, consulte de nuevo a su médico o farmacéutico.&lt;/p&gt;
+&lt;p&gt;Recuerde tomar su medicamento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en niños y adolescentes&lt;/strong&gt;
+No se aconseja la administración de Blaston en niños y adolescentes, por no disponer de experiencia de
+uso en estos grupos de edades.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Uso en adultos (mayores de 20 años)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La dosis recomendada para los adultos (mayores de 20 años) es de 1 comprimido, 3 veces al día, 15
+minutos antes de cada comida.&lt;/p&gt;
+&lt;p&gt;No es más eficaz, ni conveniente aumentar las dosis recomendadas.&lt;/p&gt;
+&lt;p&gt;Su médico le indicará la duración de su tratamiento con Blaston. No suspenda el tratamiento antes.&lt;/p&gt;
+&lt;p&gt;Los comprimidos deben tomarse por vía oral con un vaso de agua.&lt;/p&gt;
+&lt;p&gt;Si estima que la acción de Blaston es demasiado fuerte o débil, comuníqueselo a su médico o
+farmacéutico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si toma más Blaston 1 mg Comprimidos del que debe&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Si ha tomado más Blaston del que debiera, consulte inmediatamente a su médico o farmacéutico o llame
+al Servicio de Información Toxicológica, teléfono: 915 620 420, indicando el medicamento y la
+cantidad tomada.&lt;/p&gt;
+&lt;p&gt;Los síntomas de sobredosis pueden ser: somnolencia, desorientación y reacciones extrapiramidales
+(movimientos musculares involuntarios de cara, cuello y lengua) que, normalmente, desaparecen al
+suspender el tratamiento.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Si olvidó tomar Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;No tome una dosis doble para compensar las dosis olvidadas. Tome la dosis olvidada cuando se acuerde
+y luego siga con el horario habitual. Sin embargo, si faltan pocas horas para la siguiente dosis no tome
+la dosis olvidada y espere a tomar la siguiente dosis a la hora que le corresponda.&lt;/p&gt;
+&lt;p&gt;Si tiene cualquier otra duda sobre el uso de este medicamento, pregunte a su médico o farmacéutico.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Al igual que todos los medicamentos, Blaston puede producir efectos adversos, aunque no todas las
+personas los sufran.
+Los efectos adversos pueden ser:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;Poco frecuentes (pueden afectar hasta 1 de cada 100 personas)&lt;/strong&gt;&lt;ul&gt;
+&lt;li&gt;Algunos pacientes pueden notar una ligera sedación o somnolencia.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Frecuencia desconocida (no puede estimarse a partir de los datos disponibles)&lt;/strong&gt;&lt;ul&gt;
+&lt;li&gt;Pueden originarse reacciones extrapiramidales (movimientos musculares involuntarios de
+cara, cuello y lengua).&lt;/li&gt;
+&lt;li&gt;Pueden aparecer reacciones en la piel como erupción, picor, angioedema (hinchazón de
+labios y lengua que puede afectar a la laringe), ginecomastia (excesivo desarrollo de las
+glándulas mamarias) y galactorrea (secreción de leche).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Comunicación de efectos adversos&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Si experimenta cualquier tipo de efecto adverso, consulte a su médico, farmacéutico o enfermero incluso
+si se trata de posibles efectos adversos que no aparecen en este prospecto. También puede comunicarlos
+directamente a través del Sistema Español de Farmacovigilancia de Medicamentos de Uso Humano:
+&lt;a href="https://www.notificaram.es"&gt;https://www.notificaram.es&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Mediante la comunicación de efectos adversos usted puede contribuir a proporcionar más información
+sobre la seguridad de este medicamento.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mantener este medicamento fuera de la vista y del alcance de los niños.&lt;/p&gt;
+&lt;p&gt;No requiere condiciones especiales de conservación.&lt;/p&gt;
+&lt;p&gt;No utilice este medicamento después de la fecha de caducidad que aparece en el envase después de Cad. La fecha de caducidad es el último día del mes que se indica.&lt;/p&gt;
+&lt;p&gt;Los medicamentos no se deben tirar por los desagües ni a la basura. Deposite los envases y los
+medicamentos que no necesita en el Punto SIGRE de la farmacia. En caso de duda pregunte a su
+farmacéutico cómo deshacerse de los envases y de los medicamentos que no necesita. De esta forma
+ayudará a proteger el medio ambiente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Composición de Blaston 1 mg Comprimidos&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;El principio activo es cinitaprida (como tartrato ácido). Cada comprimido contiene 1 mg de cinitaprida
+Los demás componentes son carboximetilalmidón de sodio (de patata), celulosa en polvo, lactosa
+anhidra, sílice coloidal y estearato de magnesio (E-470b).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Aspecto del producto y contenido del envase&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Blaston 1 mg Comprimidos se presenta en forma de comprimidos redondos, biselados, de color amarillo
+claro y ranurados en su cara superior. Cada caja contiene 50 comprimidos&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular de la autorización de comercialización y responsable de la fabricación&lt;/strong&gt;
+&lt;strong&gt;Titular de la autorización de comercialización&lt;/strong&gt;
+Lacer, S.A. - Boters, 5
+08290 Cerdanyola del Vallès
+Barcelona – España&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Responsable de la fabricación&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Industrias Farmacéuticas Almirall, S.A.
+Ctra. de Martorell, 41-61
+08740 Sant Andreu de la Barca – Barcelona (España)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fecha de la última revisión de este prospecto: Marzo 2019&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;La información detallada y actualizada de este medicamento está disponible en la página Web de
+la Agencia Española de Medicamentos y Productos Sanitarios (AEMPS) &lt;a href="http://www.aemps.gob.es/"&gt;http://www.aemps.gob.es/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>59.032|0xbb82cd10ab2add752b2b9224931077b2</t>
+  </si>
+  <si>
+    <t>https:://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
@@ -585,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,6 +777,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,7 +1254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>112</v>
@@ -1092,18 +1267,36 @@
         <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1642,30 +1835,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,93 +1866,99 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>30</v>
       </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>100000000000</v>
       </c>
     </row>
@@ -2021,7 +2220,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
